--- a/Publish/myStocks-Portfolio-Publish.xlsx
+++ b/Publish/myStocks-Portfolio-Publish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\data\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C04A84-9A66-41B7-9793-75A2D0277EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB7636-D82D-46C4-B86E-CD4C23921946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1175,33 +1175,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>4.9400000000000004</v>
+        <v>20.47</v>
       </c>
       <c r="C2">
-        <v>4.9400000000000004</v>
+        <v>20.47</v>
       </c>
       <c r="D2">
-        <v>0.71</v>
+        <v>2.77</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>5.3</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C3">
-        <v>5.3</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="D3">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1209,36 +1209,36 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>6.43</v>
+        <v>5.3</v>
       </c>
       <c r="C4">
-        <v>6.74</v>
+        <v>5.3</v>
       </c>
       <c r="D4">
-        <v>1.67</v>
+        <v>0.65</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>9.19</v>
+        <v>6.43</v>
       </c>
       <c r="C5">
-        <v>9.19</v>
+        <v>6.74</v>
       </c>
       <c r="D5">
-        <v>2.77</v>
+        <v>1.67</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1603,7 +1603,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>2.42</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="C27">
         <v>30.24</v>
@@ -1892,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B44">
-        <v>4.3899999999999997</v>
+        <v>13.09</v>
       </c>
       <c r="C44">
         <v>51.2</v>
@@ -2011,7 +2011,7 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>-5.25</v>
+        <v>17.88</v>
       </c>
       <c r="C51">
         <v>65.12</v>
@@ -2096,7 +2096,7 @@
         <v>63</v>
       </c>
       <c r="B56">
-        <v>1.19</v>
+        <v>19.05</v>
       </c>
       <c r="C56">
         <v>72.5</v>
@@ -2113,7 +2113,7 @@
         <v>64</v>
       </c>
       <c r="B57">
-        <v>-4.5599999999999996</v>
+        <v>4.68</v>
       </c>
       <c r="C57">
         <v>76.47</v>

--- a/Publish/myStocks-Portfolio-Publish.xlsx
+++ b/Publish/myStocks-Portfolio-Publish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\data\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB7636-D82D-46C4-B86E-CD4C23921946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E12683-A91F-4265-B7EF-8D12154DCFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="30-Dec-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Catalog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>Stock</t>
   </si>
@@ -303,6 +314,12 @@
   </si>
   <si>
     <t>BTT - Breakout Technical Target</t>
+  </si>
+  <si>
+    <t>TRIDENT.NS</t>
+  </si>
+  <si>
+    <t>BANKINDIA.NS</t>
   </si>
 </sst>
 </file>
@@ -1144,16 +1161,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1175,33 +1195,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>20.47</v>
+        <v>6.48</v>
       </c>
       <c r="C2">
-        <v>20.47</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="D2">
-        <v>2.77</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>4.9400000000000004</v>
+        <v>12.27</v>
       </c>
       <c r="C3">
-        <v>4.9400000000000004</v>
+        <v>12.27</v>
       </c>
       <c r="D3">
-        <v>0.71</v>
+        <v>1.02</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1209,33 +1229,33 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>14.49</v>
       </c>
       <c r="D4">
-        <v>0.65</v>
+        <v>2.76</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>6.43</v>
+        <v>3.06</v>
       </c>
       <c r="C5">
-        <v>6.74</v>
+        <v>14.52</v>
       </c>
       <c r="D5">
-        <v>1.67</v>
+        <v>2.44</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1243,33 +1263,33 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>9.5500000000000007</v>
+        <v>1.69</v>
       </c>
       <c r="C6">
-        <v>9.5500000000000007</v>
+        <v>16.72</v>
       </c>
       <c r="D6">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>12.32</v>
+        <v>16.95</v>
       </c>
       <c r="D7">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1277,33 +1297,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>5.93</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>18.66</v>
       </c>
       <c r="D8">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>13.17</v>
+        <v>19.07</v>
       </c>
       <c r="C9">
-        <v>13.17</v>
+        <v>19.07</v>
       </c>
       <c r="D9">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1311,33 +1331,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>2.08</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="C10">
-        <v>14.48</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="D10">
-        <v>2.86</v>
+        <v>0.96</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>6.78</v>
+        <v>18.38</v>
       </c>
       <c r="C11">
-        <v>14.66</v>
+        <v>19.89</v>
       </c>
       <c r="D11">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1345,33 +1365,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>61.12</v>
       </c>
       <c r="C12">
-        <v>15.28</v>
+        <v>19.96</v>
       </c>
       <c r="D12">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>4.53</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C13">
-        <v>16.16</v>
+        <v>20.04</v>
       </c>
       <c r="D13">
-        <v>2.4900000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1379,67 +1399,67 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>17.32</v>
+        <v>8.6</v>
       </c>
       <c r="C14">
-        <v>17.32</v>
+        <v>20.8</v>
       </c>
       <c r="D14">
-        <v>1.07</v>
+        <v>0.94</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>18.27</v>
+        <v>2.73</v>
       </c>
       <c r="C15">
-        <v>18.27</v>
+        <v>21.86</v>
       </c>
       <c r="D15">
-        <v>1.38</v>
+        <v>3.6</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>15.71</v>
+        <v>22.62</v>
       </c>
       <c r="C16">
-        <v>18.97</v>
+        <v>22.62</v>
       </c>
       <c r="D16">
-        <v>3.08</v>
+        <v>1.24</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>1.1100000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="C17">
-        <v>19.940000000000001</v>
+        <v>22.86</v>
       </c>
       <c r="D17">
-        <v>3.78</v>
+        <v>2.89</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1447,87 +1467,87 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>21.12</v>
+        <v>10.95</v>
       </c>
       <c r="C18">
-        <v>21.12</v>
+        <v>23.13</v>
       </c>
       <c r="D18">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>20.76</v>
+        <v>11.43</v>
       </c>
       <c r="C19">
-        <v>22.3</v>
+        <v>23.78</v>
       </c>
       <c r="D19">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>12.57</v>
+        <v>24.17</v>
       </c>
       <c r="C20">
-        <v>22.89</v>
+        <v>24.17</v>
       </c>
       <c r="D20">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>65.47</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C21">
-        <v>23.2</v>
+        <v>25.73</v>
       </c>
       <c r="D21">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>11.47</v>
+        <v>23.63</v>
       </c>
       <c r="C22">
-        <v>24.87</v>
+        <v>26.07</v>
       </c>
       <c r="D22">
-        <v>1.79</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1535,13 +1555,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="C23">
-        <v>24.91</v>
+        <v>26.66</v>
       </c>
       <c r="D23">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1549,16 +1569,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>24.13</v>
+        <v>6.41</v>
       </c>
       <c r="C24">
-        <v>26.58</v>
+        <v>27.59</v>
       </c>
       <c r="D24">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -1566,16 +1586,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>5.37</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>26.64</v>
+        <v>27.67</v>
       </c>
       <c r="D25">
-        <v>0.94</v>
+        <v>2.75</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1583,50 +1603,50 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>28.46</v>
+        <v>15.15</v>
       </c>
       <c r="C26">
-        <v>28.46</v>
+        <v>27.9</v>
       </c>
       <c r="D26">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>8.6199999999999992</v>
+        <v>6.14</v>
       </c>
       <c r="C27">
-        <v>30.24</v>
+        <v>28.85</v>
       </c>
       <c r="D27">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>30.4</v>
+        <v>29.58</v>
       </c>
       <c r="C28">
-        <v>30.4</v>
+        <v>29.58</v>
       </c>
       <c r="D28">
-        <v>0.91</v>
+        <v>1.25</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1634,50 +1654,50 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>30.55</v>
+        <v>29.6</v>
       </c>
       <c r="C29">
-        <v>30.55</v>
+        <v>29.6</v>
       </c>
       <c r="D29">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>30.93</v>
+        <v>24.9</v>
       </c>
       <c r="C30">
-        <v>30.93</v>
+        <v>31.15</v>
       </c>
       <c r="D30">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>2.74</v>
+        <v>4.68</v>
       </c>
       <c r="C31">
-        <v>31.87</v>
+        <v>31.34</v>
       </c>
       <c r="D31">
-        <v>0.91</v>
+        <v>1.43</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1685,16 +1705,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <v>24.71</v>
+        <v>18.59</v>
       </c>
       <c r="C32">
-        <v>32.1</v>
+        <v>32.090000000000003</v>
       </c>
       <c r="D32">
-        <v>1.45</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1705,13 +1725,13 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>19.41</v>
+        <v>19.39</v>
       </c>
       <c r="C33">
-        <v>32.25</v>
+        <v>32.22</v>
       </c>
       <c r="D33">
-        <v>1.17</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -1719,118 +1739,118 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>32.83</v>
+        <v>32.4</v>
       </c>
       <c r="D34">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>9.49</v>
+        <v>32.99</v>
       </c>
       <c r="C35">
-        <v>37.369999999999997</v>
+        <v>32.99</v>
       </c>
       <c r="D35">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>38.51</v>
+        <v>4.46</v>
       </c>
       <c r="C36">
-        <v>38.51</v>
+        <v>34.08</v>
       </c>
       <c r="D36">
-        <v>1.64</v>
+        <v>0.86</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>17.440000000000001</v>
+        <v>37.1</v>
       </c>
       <c r="C37">
-        <v>39.42</v>
+        <v>37.1</v>
       </c>
       <c r="D37">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>11.86</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C38">
-        <v>41.83</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D38">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="C39">
-        <v>43.05</v>
+        <v>39.08</v>
       </c>
       <c r="D39">
-        <v>1.79</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>16.2</v>
+        <v>10.4</v>
       </c>
       <c r="C40">
-        <v>44.15</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="D40">
-        <v>2.0299999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -1838,19 +1858,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>44.27</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="C41">
-        <v>44.27</v>
+        <v>41.36</v>
       </c>
       <c r="D41">
-        <v>0.9</v>
+        <v>1.42</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1858,13 +1878,13 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>41.51</v>
+        <v>39.32</v>
       </c>
       <c r="C42">
-        <v>49.2</v>
+        <v>46.89</v>
       </c>
       <c r="D42">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -1872,16 +1892,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>50.45</v>
+        <v>47.9</v>
       </c>
       <c r="C43">
-        <v>50.45</v>
+        <v>47.9</v>
       </c>
       <c r="D43">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1889,33 +1909,33 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>13.09</v>
+        <v>49.17</v>
       </c>
       <c r="C44">
-        <v>51.2</v>
+        <v>49.17</v>
       </c>
       <c r="D44">
-        <v>2.11</v>
+        <v>0.8</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>35.9</v>
+        <v>20.71</v>
       </c>
       <c r="C45">
-        <v>51.37</v>
+        <v>52.87</v>
       </c>
       <c r="D45">
-        <v>1.05</v>
+        <v>0.86</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -1923,16 +1943,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>22.87</v>
+        <v>16.73</v>
       </c>
       <c r="C46">
-        <v>55.6</v>
+        <v>56.07</v>
       </c>
       <c r="D46">
-        <v>0.88</v>
+        <v>1.98</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -1940,16 +1960,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>29.28</v>
+        <v>8.39</v>
       </c>
       <c r="C47">
-        <v>58.13</v>
+        <v>56.36</v>
       </c>
       <c r="D47">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -1957,16 +1977,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>30.2</v>
+        <v>29.48</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>58.39</v>
       </c>
       <c r="D48">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1974,16 +1994,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>14.86</v>
+        <v>32.07</v>
       </c>
       <c r="C49">
-        <v>59.45</v>
+        <v>61.28</v>
       </c>
       <c r="D49">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1991,16 +2011,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>11.41</v>
+        <v>15.46</v>
       </c>
       <c r="C50">
-        <v>60.71</v>
+        <v>61.72</v>
       </c>
       <c r="D50">
-        <v>0.91</v>
+        <v>1.41</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -2008,16 +2028,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>17.88</v>
+        <v>16.82</v>
       </c>
       <c r="C51">
-        <v>65.12</v>
+        <v>62.18</v>
       </c>
       <c r="D51">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -2025,50 +2045,50 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B52">
-        <v>69.58</v>
+        <v>51.59</v>
       </c>
       <c r="C52">
-        <v>69.58</v>
+        <v>62.86</v>
       </c>
       <c r="D52">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>8.85</v>
+        <v>65.08</v>
       </c>
       <c r="C53">
-        <v>70.62</v>
+        <v>65.08</v>
       </c>
       <c r="D53">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>15.03</v>
+        <v>5.78</v>
       </c>
       <c r="C54">
-        <v>70.88</v>
+        <v>65.81</v>
       </c>
       <c r="D54">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
@@ -2079,13 +2099,13 @@
         <v>62</v>
       </c>
       <c r="B55">
-        <v>0.8</v>
+        <v>1.32</v>
       </c>
       <c r="C55">
-        <v>70.92</v>
+        <v>68.34</v>
       </c>
       <c r="D55">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2093,16 +2113,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>19.05</v>
+        <v>13.39</v>
       </c>
       <c r="C56">
-        <v>72.5</v>
+        <v>68.44</v>
       </c>
       <c r="D56">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
@@ -2110,16 +2130,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>4.68</v>
+        <v>21.8</v>
       </c>
       <c r="C57">
-        <v>76.47</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="D57">
-        <v>1.1499999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -2127,36 +2147,36 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>85.58</v>
+        <v>8.06</v>
       </c>
       <c r="C58">
-        <v>85.58</v>
+        <v>82.16</v>
       </c>
       <c r="D58">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>52.25</v>
+        <v>83.98</v>
       </c>
       <c r="C59">
-        <v>94.47</v>
+        <v>83.98</v>
       </c>
       <c r="D59">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2164,13 +2184,13 @@
         <v>67</v>
       </c>
       <c r="B60">
-        <v>54.29</v>
+        <v>51.2</v>
       </c>
       <c r="C60">
-        <v>96.39</v>
+        <v>92.47</v>
       </c>
       <c r="D60">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
@@ -2178,16 +2198,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>16.8</v>
+        <v>52.56</v>
       </c>
       <c r="C61">
-        <v>104.49</v>
+        <v>94.87</v>
       </c>
       <c r="D61">
-        <v>1.19</v>
+        <v>0.74</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
@@ -2195,16 +2215,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>38.28</v>
+        <v>16.8</v>
       </c>
       <c r="C62">
-        <v>108.29</v>
+        <v>98.07</v>
       </c>
       <c r="D62">
-        <v>1.96</v>
+        <v>0.86</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -2215,13 +2235,13 @@
         <v>70</v>
       </c>
       <c r="B63">
-        <v>24.98</v>
+        <v>22.28</v>
       </c>
       <c r="C63">
-        <v>108.57</v>
+        <v>104.07</v>
       </c>
       <c r="D63">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -2229,16 +2249,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>25.22</v>
+        <v>17.05</v>
       </c>
       <c r="C64">
-        <v>112.36</v>
+        <v>104.95</v>
       </c>
       <c r="D64">
-        <v>0.83</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
@@ -2246,16 +2266,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>37.700000000000003</v>
+        <v>37.51</v>
       </c>
       <c r="C65">
-        <v>124.28</v>
+        <v>107.14</v>
       </c>
       <c r="D65">
-        <v>1.1000000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -2263,16 +2283,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>37.1</v>
+        <v>33.18</v>
       </c>
       <c r="C66">
-        <v>134.21</v>
+        <v>116.92</v>
       </c>
       <c r="D66">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -2280,16 +2300,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>28.51</v>
+        <v>30.85</v>
       </c>
       <c r="C67">
-        <v>142.16</v>
+        <v>123.53</v>
       </c>
       <c r="D67">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -2297,16 +2317,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>59.05</v>
+        <v>23.32</v>
       </c>
       <c r="C68">
-        <v>158.25</v>
+        <v>132.38</v>
       </c>
       <c r="D68">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
@@ -2314,16 +2334,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>21.38</v>
+        <v>55.7</v>
       </c>
       <c r="C69">
-        <v>197.63</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="D69">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -2331,16 +2351,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B70">
-        <v>62.15</v>
+        <v>43.04</v>
       </c>
       <c r="C70">
-        <v>248.55</v>
+        <v>162.88999999999999</v>
       </c>
       <c r="D70">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -2348,16 +2368,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>11.08</v>
+        <v>16.41</v>
       </c>
       <c r="C71">
-        <v>249.39</v>
+        <v>185.45</v>
       </c>
       <c r="D71">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -2365,16 +2385,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>66.290000000000006</v>
+        <v>1.29</v>
       </c>
       <c r="C72">
-        <v>267.23</v>
+        <v>218.58</v>
       </c>
       <c r="D72">
-        <v>1.39</v>
+        <v>0.96</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -2382,16 +2402,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>27.82</v>
+        <v>62.34</v>
       </c>
       <c r="C73">
-        <v>282.60000000000002</v>
+        <v>248.95</v>
       </c>
       <c r="D73">
-        <v>0.83</v>
+        <v>1.27</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -2399,16 +2419,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>13.84</v>
+        <v>21.7</v>
       </c>
       <c r="C74">
-        <v>319.18</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="D74">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -2416,16 +2436,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>21.8</v>
+        <v>68.209999999999994</v>
       </c>
       <c r="C75">
-        <v>445.93</v>
+        <v>271.47000000000003</v>
       </c>
       <c r="D75">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
@@ -2433,18 +2453,52 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>10.36</v>
+      </c>
+      <c r="C76">
+        <v>306.37</v>
+      </c>
+      <c r="D76">
+        <v>0.97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>22.48</v>
+      </c>
+      <c r="C77">
+        <v>448.97</v>
+      </c>
+      <c r="D77">
+        <v>1.33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B76">
-        <v>31.47</v>
-      </c>
-      <c r="C76">
-        <v>693.69</v>
-      </c>
-      <c r="D76">
-        <v>0.84</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="B78">
+        <v>36.18</v>
+      </c>
+      <c r="C78">
+        <v>722.08</v>
+      </c>
+      <c r="D78">
+        <v>0.78</v>
+      </c>
+      <c r="E78" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Publish/myStocks-Portfolio-Publish.xlsx
+++ b/Publish/myStocks-Portfolio-Publish.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\data\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E12683-A91F-4265-B7EF-8D12154DCFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A1CB5-7EB2-44FE-BCA2-14643802E46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
   <si>
     <t>Stock</t>
   </si>
@@ -73,9 +73,6 @@
     <t>RELIANCE.NS</t>
   </si>
   <si>
-    <t>HDFCAMC.NS</t>
-  </si>
-  <si>
     <t>BAJAJFINSV.NS</t>
   </si>
   <si>
@@ -320,6 +317,15 @@
   </si>
   <si>
     <t>BANKINDIA.NS</t>
+  </si>
+  <si>
+    <t>MARICO.NS</t>
+  </si>
+  <si>
+    <t>HAPPSTMNDS.NS</t>
+  </si>
+  <si>
+    <t>UJJIVANSFB.NS</t>
   </si>
 </sst>
 </file>
@@ -1161,22 +1167,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,729 +1199,729 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>6.48</v>
+        <v>0.71</v>
       </c>
       <c r="C2">
-        <v>8.9700000000000006</v>
+        <v>12.18</v>
       </c>
       <c r="D2">
-        <v>2.0699999999999998</v>
+        <v>1.36</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>12.27</v>
+        <v>13.15</v>
       </c>
       <c r="C3">
-        <v>12.27</v>
+        <v>13.15</v>
       </c>
       <c r="D3">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="C4">
-        <v>14.49</v>
+        <v>14.9</v>
       </c>
       <c r="D4">
-        <v>2.76</v>
+        <v>0.98</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>3.06</v>
+        <v>3.44</v>
       </c>
       <c r="C5">
-        <v>14.52</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.69</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C6">
-        <v>16.72</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D6">
-        <v>0.92</v>
+        <v>2.39</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7.53</v>
       </c>
       <c r="C7">
-        <v>16.95</v>
+        <v>17.38</v>
       </c>
       <c r="D7">
-        <v>2.12</v>
+        <v>0.98</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>18.41</v>
+      </c>
+      <c r="C8">
+        <v>18.41</v>
+      </c>
+      <c r="D8">
+        <v>1.02</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>6.62</v>
+      </c>
+      <c r="C9">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.81</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>5.93</v>
-      </c>
-      <c r="C8">
-        <v>18.66</v>
-      </c>
-      <c r="D8">
-        <v>1.82</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>4.08</v>
+      </c>
+      <c r="C10">
+        <v>19.47</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>19.07</v>
-      </c>
-      <c r="C9">
-        <v>19.07</v>
-      </c>
-      <c r="D9">
-        <v>1.32</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>2.68</v>
+      </c>
+      <c r="C11">
+        <v>21.28</v>
+      </c>
+      <c r="D11">
+        <v>0.95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>21.34</v>
+      </c>
+      <c r="C12">
+        <v>21.34</v>
+      </c>
+      <c r="D12">
+        <v>1.25</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>21.79</v>
+      </c>
+      <c r="C13">
+        <v>23.34</v>
+      </c>
+      <c r="D13">
+        <v>1.42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="C10">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>18.38</v>
-      </c>
-      <c r="C11">
-        <v>19.89</v>
-      </c>
-      <c r="D11">
-        <v>1.47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>61.12</v>
-      </c>
-      <c r="C12">
-        <v>19.96</v>
-      </c>
-      <c r="D12">
-        <v>1.05</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C13">
-        <v>20.04</v>
-      </c>
-      <c r="D13">
-        <v>0.63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
       <c r="B14">
-        <v>8.6</v>
+        <v>65.77</v>
       </c>
       <c r="C14">
-        <v>20.8</v>
+        <v>23.42</v>
       </c>
       <c r="D14">
-        <v>0.94</v>
+        <v>1.01</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>2.73</v>
+        <v>12.16</v>
       </c>
       <c r="C15">
-        <v>21.86</v>
+        <v>23.43</v>
       </c>
       <c r="D15">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>22.62</v>
+        <v>20.43</v>
       </c>
       <c r="C16">
-        <v>22.62</v>
+        <v>23.82</v>
       </c>
       <c r="D16">
-        <v>1.24</v>
+        <v>2.86</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>19.5</v>
+        <v>5.3</v>
       </c>
       <c r="C17">
-        <v>22.86</v>
+        <v>24.91</v>
       </c>
       <c r="D17">
-        <v>2.89</v>
+        <v>3.5</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <v>10.95</v>
+        <v>12.93</v>
       </c>
       <c r="C18">
-        <v>23.13</v>
+        <v>25.33</v>
       </c>
       <c r="D18">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>11.43</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>23.78</v>
+        <v>25.47</v>
       </c>
       <c r="D19">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>24.17</v>
+        <v>25.73</v>
       </c>
       <c r="C20">
-        <v>24.17</v>
+        <v>25.73</v>
       </c>
       <c r="D20">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>4.6100000000000003</v>
+        <v>15.28</v>
       </c>
       <c r="C21">
-        <v>25.73</v>
+        <v>28.04</v>
       </c>
       <c r="D21">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>23.63</v>
+        <v>15.32</v>
       </c>
       <c r="C22">
-        <v>26.07</v>
+        <v>28.09</v>
       </c>
       <c r="D22">
-        <v>1.1599999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>5.42</v>
+        <v>28.21</v>
       </c>
       <c r="C23">
-        <v>26.66</v>
+        <v>28.21</v>
       </c>
       <c r="D23">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>5.65</v>
+      </c>
+      <c r="C24">
+        <v>28.26</v>
+      </c>
+      <c r="D24">
+        <v>1.63</v>
+      </c>
+      <c r="E24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24">
-        <v>6.41</v>
-      </c>
-      <c r="C24">
-        <v>27.59</v>
-      </c>
-      <c r="D24">
-        <v>1.52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>21.73</v>
       </c>
       <c r="C25">
-        <v>27.67</v>
+        <v>28.94</v>
       </c>
       <c r="D25">
-        <v>2.75</v>
+        <v>1.43</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>15.15</v>
+        <v>16.23</v>
       </c>
       <c r="C26">
-        <v>27.9</v>
+        <v>29.16</v>
       </c>
       <c r="D26">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>6.14</v>
+        <v>13.12</v>
       </c>
       <c r="C27">
-        <v>28.85</v>
+        <v>29.2</v>
       </c>
       <c r="D27">
-        <v>1.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>29.58</v>
+        <v>7.92</v>
       </c>
       <c r="C28">
-        <v>29.58</v>
+        <v>29.66</v>
       </c>
       <c r="D28">
-        <v>1.25</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>29.6</v>
+        <v>19.78</v>
       </c>
       <c r="C29">
-        <v>29.6</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="D29">
-        <v>1.03</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>24.9</v>
+        <v>4.05</v>
       </c>
       <c r="C30">
-        <v>31.15</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="D30">
-        <v>1.36</v>
+        <v>2.63</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>4.68</v>
+        <v>27.01</v>
       </c>
       <c r="C31">
-        <v>31.34</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="D31">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>18.59</v>
+        <v>21.51</v>
       </c>
       <c r="C32">
-        <v>32.090000000000003</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="D32">
-        <v>1.1599999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>19.39</v>
+        <v>5.27</v>
       </c>
       <c r="C33">
-        <v>32.22</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="D33">
-        <v>1.1399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>8.52</v>
       </c>
       <c r="C34">
-        <v>32.4</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="D34">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>32.99</v>
+        <v>32.15</v>
       </c>
       <c r="C35">
-        <v>32.99</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="D35">
-        <v>1.38</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B36">
-        <v>4.46</v>
+        <v>9.77</v>
       </c>
       <c r="C36">
-        <v>34.08</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="D36">
-        <v>0.86</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>37.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C37">
-        <v>37.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D37">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>37.799999999999997</v>
+        <v>7.59</v>
       </c>
       <c r="C38">
-        <v>37.799999999999997</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="D38">
         <v>0.83</v>
       </c>
       <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>38.6</v>
+      </c>
+      <c r="C39">
+        <v>38.6</v>
+      </c>
+      <c r="D39">
+        <v>0.83</v>
+      </c>
+      <c r="E39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39">
-        <v>12.11</v>
-      </c>
-      <c r="C39">
-        <v>39.08</v>
-      </c>
-      <c r="D39">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B40">
-        <v>10.4</v>
+        <v>30.53</v>
       </c>
       <c r="C40">
-        <v>39.979999999999997</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="D40">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>19.079999999999998</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="C41">
-        <v>41.36</v>
+        <v>41.49</v>
       </c>
       <c r="D41">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>39.32</v>
+        <v>44.73</v>
       </c>
       <c r="C42">
-        <v>46.89</v>
+        <v>44.73</v>
       </c>
       <c r="D42">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>47.9</v>
+        <v>40.21</v>
       </c>
       <c r="C43">
-        <v>47.9</v>
+        <v>47.83</v>
       </c>
       <c r="D43">
-        <v>0.85</v>
+        <v>1.6</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>49.17</v>
+        <v>48.6</v>
       </c>
       <c r="C44">
-        <v>49.17</v>
+        <v>48.6</v>
       </c>
       <c r="D44">
         <v>0.8</v>
@@ -1924,581 +1930,615 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>17.54</v>
+      </c>
+      <c r="C45">
+        <v>48.85</v>
+      </c>
+      <c r="D45">
+        <v>0.88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>51.54</v>
+      </c>
+      <c r="C46">
+        <v>51.54</v>
+      </c>
+      <c r="D46">
+        <v>0.83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>14.51</v>
+      </c>
+      <c r="C47">
+        <v>53.1</v>
+      </c>
+      <c r="D47">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>20.71</v>
-      </c>
-      <c r="C45">
-        <v>52.87</v>
-      </c>
-      <c r="D45">
-        <v>0.86</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>16.73</v>
-      </c>
-      <c r="C46">
-        <v>56.07</v>
-      </c>
-      <c r="D46">
-        <v>1.98</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B48">
+        <v>30.47</v>
+      </c>
+      <c r="C48">
+        <v>59.6</v>
+      </c>
+      <c r="D48">
+        <v>1.17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>11.71</v>
+      </c>
+      <c r="C49">
+        <v>61.14</v>
+      </c>
+      <c r="D49">
+        <v>0.88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="C50">
+        <v>61.26</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>63.18</v>
+      </c>
+      <c r="C51">
+        <v>63.18</v>
+      </c>
+      <c r="D51">
+        <v>1.03</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52">
+        <v>63.43</v>
+      </c>
+      <c r="C52">
+        <v>63.43</v>
+      </c>
+      <c r="D52">
+        <v>0.99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <v>-3.54</v>
+      </c>
+      <c r="C53">
+        <v>63.58</v>
+      </c>
+      <c r="D53">
+        <v>1.04</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
-        <v>8.39</v>
-      </c>
-      <c r="C47">
-        <v>56.36</v>
-      </c>
-      <c r="D47">
-        <v>0.9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48">
-        <v>29.48</v>
-      </c>
-      <c r="C48">
-        <v>58.39</v>
-      </c>
-      <c r="D48">
-        <v>1.19</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B54">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C54">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="D54">
+        <v>1.38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>5.68</v>
+      </c>
+      <c r="C55">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="D55">
+        <v>1.05</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="C56">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D56">
+        <v>0.95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B49">
-        <v>32.07</v>
-      </c>
-      <c r="C49">
-        <v>61.28</v>
-      </c>
-      <c r="D49">
-        <v>1.01</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50">
-        <v>15.46</v>
-      </c>
-      <c r="C50">
-        <v>61.72</v>
-      </c>
-      <c r="D50">
-        <v>1.41</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>16.82</v>
-      </c>
-      <c r="C51">
-        <v>62.18</v>
-      </c>
-      <c r="D51">
+      <c r="B57">
+        <v>23.47</v>
+      </c>
+      <c r="C57">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D57">
+        <v>1.21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>3.41</v>
+      </c>
+      <c r="C58">
+        <v>71.81</v>
+      </c>
+      <c r="D58">
+        <v>0.93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>17.04</v>
+      </c>
+      <c r="C59">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="D59">
         <v>1.28</v>
       </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52">
-        <v>51.59</v>
-      </c>
-      <c r="C52">
-        <v>62.86</v>
-      </c>
-      <c r="D52">
-        <v>1.04</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53">
-        <v>65.08</v>
-      </c>
-      <c r="C53">
-        <v>65.08</v>
-      </c>
-      <c r="D53">
-        <v>1.02</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <v>5.78</v>
-      </c>
-      <c r="C54">
-        <v>65.81</v>
-      </c>
-      <c r="D54">
-        <v>1.05</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B55">
-        <v>1.32</v>
-      </c>
-      <c r="C55">
-        <v>68.34</v>
-      </c>
-      <c r="D55">
-        <v>0.95</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="B60">
+        <v>21.65</v>
+      </c>
+      <c r="C60">
+        <v>76.28</v>
+      </c>
+      <c r="D60">
+        <v>1.42</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61">
+        <v>2.87</v>
+      </c>
+      <c r="C61">
+        <v>79.05</v>
+      </c>
+      <c r="D61">
+        <v>1.03</v>
+      </c>
+      <c r="E61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>13.39</v>
-      </c>
-      <c r="C56">
-        <v>68.44</v>
-      </c>
-      <c r="D56">
-        <v>1.32</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B57">
-        <v>21.8</v>
-      </c>
-      <c r="C57">
-        <v>76.489999999999995</v>
-      </c>
-      <c r="D57">
-        <v>1.42</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58">
-        <v>8.06</v>
-      </c>
-      <c r="C58">
-        <v>82.16</v>
-      </c>
-      <c r="D58">
-        <v>1.08</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B62">
+        <v>10.29</v>
+      </c>
+      <c r="C62">
+        <v>85.93</v>
+      </c>
+      <c r="D62">
+        <v>1.06</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B59">
-        <v>83.98</v>
-      </c>
-      <c r="C59">
-        <v>83.98</v>
-      </c>
-      <c r="D59">
-        <v>0.89</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60">
-        <v>51.2</v>
-      </c>
-      <c r="C60">
-        <v>92.47</v>
-      </c>
-      <c r="D60">
-        <v>0.81</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B63">
+        <v>53.42</v>
+      </c>
+      <c r="C63">
+        <v>95.97</v>
+      </c>
+      <c r="D63">
+        <v>0.74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B61">
-        <v>52.56</v>
-      </c>
-      <c r="C61">
-        <v>94.87</v>
-      </c>
-      <c r="D61">
-        <v>0.74</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62">
-        <v>16.8</v>
-      </c>
-      <c r="C62">
-        <v>98.07</v>
-      </c>
-      <c r="D62">
-        <v>0.86</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63">
-        <v>22.28</v>
-      </c>
-      <c r="C63">
-        <v>104.07</v>
-      </c>
-      <c r="D63">
-        <v>1.17</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
       <c r="B64">
-        <v>17.05</v>
+        <v>56.1</v>
       </c>
       <c r="C64">
-        <v>104.95</v>
+        <v>98.69</v>
       </c>
       <c r="D64">
-        <v>1.1499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>37.51</v>
+        <v>20.32</v>
       </c>
       <c r="C65">
-        <v>107.14</v>
+        <v>100.8</v>
       </c>
       <c r="D65">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>38.83</v>
+      </c>
+      <c r="C66">
+        <v>109.12</v>
+      </c>
+      <c r="D66">
+        <v>1.89</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C67">
+        <v>119.56</v>
+      </c>
+      <c r="D67">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B66">
-        <v>33.18</v>
-      </c>
-      <c r="C66">
-        <v>116.92</v>
-      </c>
-      <c r="D66">
+      <c r="B68">
+        <v>28.82</v>
+      </c>
+      <c r="C68">
+        <v>120.07</v>
+      </c>
+      <c r="D68">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B67">
-        <v>30.85</v>
-      </c>
-      <c r="C67">
-        <v>123.53</v>
-      </c>
-      <c r="D67">
-        <v>1.08</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B69">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="C69">
+        <v>122.63</v>
+      </c>
+      <c r="D69">
+        <v>0.95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>30.34</v>
+      </c>
+      <c r="C70">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="D70">
+        <v>1.03</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71">
+        <v>31.68</v>
+      </c>
+      <c r="C71">
+        <v>142.01</v>
+      </c>
+      <c r="D71">
+        <v>1.18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B68">
-        <v>23.32</v>
-      </c>
-      <c r="C68">
-        <v>132.38</v>
-      </c>
-      <c r="D68">
-        <v>0.91</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69">
-        <v>55.7</v>
-      </c>
-      <c r="C69">
-        <v>152.80000000000001</v>
-      </c>
-      <c r="D69">
-        <v>1.02</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70">
-        <v>43.04</v>
-      </c>
-      <c r="C70">
-        <v>162.88999999999999</v>
-      </c>
-      <c r="D70">
-        <v>1.08</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>16.41</v>
-      </c>
-      <c r="C71">
-        <v>185.45</v>
-      </c>
-      <c r="D71">
-        <v>1.58</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
       <c r="B72">
-        <v>1.29</v>
+        <v>57.33</v>
       </c>
       <c r="C72">
-        <v>218.58</v>
+        <v>155.46</v>
       </c>
       <c r="D72">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>62.34</v>
+        <v>12.03</v>
       </c>
       <c r="C73">
-        <v>248.95</v>
+        <v>207.34</v>
       </c>
       <c r="D73">
-        <v>1.27</v>
+        <v>0.99</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>21.7</v>
+        <v>27.31</v>
       </c>
       <c r="C74">
-        <v>264.29000000000002</v>
+        <v>212.18</v>
       </c>
       <c r="D74">
-        <v>0.85</v>
+        <v>1.44</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75">
-        <v>68.209999999999994</v>
+        <v>7.2</v>
       </c>
       <c r="C75">
-        <v>271.47000000000003</v>
+        <v>220.87</v>
       </c>
       <c r="D75">
-        <v>1.33</v>
+        <v>0.96</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>62.52</v>
+      </c>
+      <c r="C76">
+        <v>249.34</v>
+      </c>
+      <c r="D76">
+        <v>1.26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="D77">
+        <v>1.05</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="C78">
+        <v>276.45</v>
+      </c>
+      <c r="D78">
+        <v>1.31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B76">
-        <v>10.36</v>
-      </c>
-      <c r="C76">
-        <v>306.37</v>
-      </c>
-      <c r="D76">
-        <v>0.97</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>433.38</v>
+      </c>
+      <c r="D79">
+        <v>1.36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B77">
-        <v>22.48</v>
-      </c>
-      <c r="C77">
-        <v>448.97</v>
-      </c>
-      <c r="D77">
-        <v>1.33</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>36.18</v>
-      </c>
-      <c r="C78">
-        <v>722.08</v>
-      </c>
-      <c r="D78">
-        <v>0.78</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="B80">
+        <v>34.69</v>
+      </c>
+      <c r="C80">
+        <v>713.13</v>
+      </c>
+      <c r="D80">
+        <v>0.79</v>
+      </c>
+      <c r="E80" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2518,73 +2558,73 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
